--- a/challenges/synacor-weekly/rotate-cipher/visualize.xlsx
+++ b/challenges/synacor-weekly/rotate-cipher/visualize.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="25">
   <si>
     <t>W</t>
   </si>
@@ -197,7 +197,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="317">
+  <cellStyleXfs count="345">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -515,8 +515,36 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -551,8 +579,11 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="317">
+  <cellStyles count="345">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -711,6 +742,20 @@
     <cellStyle name="Followed Hyperlink" xfId="312" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="314" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="316" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="318" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="320" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="322" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="324" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="326" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="328" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="330" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="332" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="334" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="336" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="338" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="340" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="342" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="344" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -869,6 +914,20 @@
     <cellStyle name="Hyperlink" xfId="311" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="313" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="315" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="317" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="319" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="321" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="323" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="325" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="327" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="329" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="331" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="333" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="335" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="337" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="339" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="341" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="343" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1201,7 +1260,7 @@
   <dimension ref="B3:BW59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC36" sqref="AC36"/>
+      <selection activeCell="X21" sqref="X21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1636,85 +1695,85 @@
       <c r="AE6" s="3"/>
     </row>
     <row r="7" spans="2:75" ht="16">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="6" t="s">
+      <c r="C7" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G7" s="6" t="s">
+      <c r="F7" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="J7" s="6" t="s">
+      <c r="I7" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K7" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="L7" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="N7" s="6" t="s">
+      <c r="L7" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="N7" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="O7" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="P7" s="6" t="s">
+      <c r="O7" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="P7" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="Q7" s="6" t="s">
+      <c r="Q7" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="R7" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="S7" s="6" t="s">
+      <c r="R7" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="S7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="T7" s="6" t="s">
+      <c r="T7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="U7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="V7" s="6" t="s">
+      <c r="U7" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="V7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="W7" s="6" t="s">
+      <c r="W7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="X7" s="6" t="s">
+      <c r="X7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="Y7" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z7" s="6" t="s">
+      <c r="Y7" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="AA7" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB7" s="6" t="s">
+      <c r="AA7" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="9" t="s">
         <v>9</v>
       </c>
       <c r="AC7" s="3"/>
@@ -2094,79 +2153,79 @@
       </c>
     </row>
     <row r="15" spans="2:75">
-      <c r="B15" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="6" t="s">
+      <c r="B15" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="6" t="s">
+      <c r="D15" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="H15" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="I15" s="6" t="s">
+      <c r="I15" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="J15" s="6" t="s">
+      <c r="J15" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="K15" s="6" t="s">
+      <c r="K15" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="L15" s="6" t="s">
+      <c r="L15" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="M15" s="6" t="s">
+      <c r="M15" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="N15" s="6" t="s">
+      <c r="N15" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="O15" s="6" t="s">
+      <c r="O15" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="P15" s="6" t="s">
+      <c r="P15" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="Q15" s="6" t="s">
+      <c r="Q15" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="R15" s="6" t="s">
+      <c r="R15" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="S15" s="6" t="s">
+      <c r="S15" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="T15" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="U15" s="6" t="s">
+      <c r="T15" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="U15" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="V15" s="6" t="s">
+      <c r="V15" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="W15" s="6" t="s">
+      <c r="W15" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="X15" s="6" t="s">
+      <c r="X15" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="Y15" s="6" t="s">
+      <c r="Y15" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="Z15" s="6" t="s">
+      <c r="Z15" s="9" t="s">
         <v>20</v>
       </c>
       <c r="AA15" s="3"/>
@@ -2951,148 +3010,148 @@
       </c>
     </row>
     <row r="24" spans="2:59" ht="16">
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F24" s="6" t="s">
+      <c r="D24" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F24" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="G24" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H24" s="6" t="s">
+      <c r="H24" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I24" s="6" t="s">
+      <c r="I24" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="J24" s="6" t="s">
+      <c r="J24" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K24" s="6" t="s">
+      <c r="K24" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="L24" s="6" t="s">
+      <c r="L24" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="M24" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="N24" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="O24" s="6" t="s">
+      <c r="M24" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="N24" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="O24" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="P24" s="6" t="s">
+      <c r="P24" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="Q24" s="6" t="s">
+      <c r="Q24" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="R24" s="6" t="s">
+      <c r="R24" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="S24" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="T24" s="6" t="s">
+      <c r="S24" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="T24" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="U24" s="6" t="s">
+      <c r="U24" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="V24" s="6" t="s">
+      <c r="V24" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="W24" s="6" t="s">
+      <c r="W24" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="X24" s="6" t="s">
+      <c r="X24" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="Y24" s="6" t="s">
+      <c r="Y24" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="Z24" s="6" t="s">
+      <c r="Z24" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="AA24" s="6" t="s">
+      <c r="AA24" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="AB24" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC24" s="6" t="s">
+      <c r="AB24" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC24" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="AD24" s="6" t="s">
+      <c r="AD24" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="AE24" s="6" t="s">
+      <c r="AE24" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="AF24" s="6" t="s">
+      <c r="AF24" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="AG24" s="6" t="s">
+      <c r="AG24" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="AH24" s="6" t="s">
+      <c r="AH24" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="AI24" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="AJ24" s="6" t="s">
+      <c r="AI24" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ24" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="AK24" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="AL24" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="AM24" s="6" t="s">
+      <c r="AK24" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL24" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="AM24" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="AN24" s="6" t="s">
+      <c r="AN24" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="AO24" s="6" t="s">
+      <c r="AO24" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="AP24" s="6" t="s">
+      <c r="AP24" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="AQ24" s="6" t="s">
+      <c r="AQ24" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AR24" s="6" t="s">
+      <c r="AR24" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="AS24" s="6" t="s">
+      <c r="AS24" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="AT24" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="AU24" s="6" t="s">
+      <c r="AT24" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU24" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="AV24" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="AW24" s="6" t="s">
+      <c r="AV24" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW24" s="9" t="s">
         <v>13</v>
       </c>
       <c r="AY24" s="6" t="s">
@@ -4068,54 +4127,649 @@
       <c r="AW33" s="3"/>
     </row>
     <row r="34" spans="2:49">
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
-      <c r="P34" s="3"/>
-      <c r="Q34" s="3"/>
-      <c r="R34" s="3"/>
-      <c r="S34" s="3"/>
-      <c r="T34" s="3"/>
-      <c r="U34" s="3"/>
-      <c r="V34" s="3"/>
-      <c r="W34" s="3"/>
-      <c r="X34" s="3"/>
-      <c r="Y34" s="3"/>
-      <c r="Z34" s="3"/>
-      <c r="AA34" s="3"/>
-      <c r="AB34" s="3"/>
-      <c r="AC34" s="3"/>
-      <c r="AD34" s="3"/>
-      <c r="AE34" s="3"/>
+      <c r="B34" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K34" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L34" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M34" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="N34" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O34" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="P34" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q34" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="R34" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="S34" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="T34" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="U34" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="V34" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="W34" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="X34" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y34" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z34" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA34" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB34" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC34" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD34" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE34" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="AF34" s="3"/>
-      <c r="AG34" s="3"/>
-      <c r="AH34" s="3"/>
-      <c r="AI34" s="3"/>
-      <c r="AJ34" s="3"/>
-      <c r="AK34" s="3"/>
-      <c r="AL34" s="3"/>
-      <c r="AM34" s="3"/>
-      <c r="AN34" s="3"/>
-      <c r="AO34" s="3"/>
-      <c r="AP34" s="3"/>
-      <c r="AQ34" s="3"/>
-      <c r="AR34" s="3"/>
-      <c r="AS34" s="3"/>
-      <c r="AT34" s="3"/>
-      <c r="AU34" s="3"/>
-      <c r="AV34" s="3"/>
-      <c r="AW34" s="3"/>
+      <c r="AG34" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH34" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="AI34" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ34" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK34" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL34" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN34" s="9">
+        <v>6</v>
+      </c>
+      <c r="AO34" s="9">
+        <v>5</v>
+      </c>
+      <c r="AP34" s="9">
+        <v>4</v>
+      </c>
+      <c r="AQ34" s="9">
+        <v>3</v>
+      </c>
+      <c r="AR34" s="9">
+        <v>2</v>
+      </c>
+      <c r="AS34" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:49">
+      <c r="B35" s="3">
+        <v>1</v>
+      </c>
+      <c r="C35" s="3">
+        <v>2</v>
+      </c>
+      <c r="D35" s="3">
+        <v>3</v>
+      </c>
+      <c r="E35" s="3">
+        <v>4</v>
+      </c>
+      <c r="F35" s="3">
+        <v>5</v>
+      </c>
+      <c r="G35" s="3">
+        <v>6</v>
+      </c>
+      <c r="H35" s="3">
+        <v>7</v>
+      </c>
+      <c r="I35" s="3">
+        <v>8</v>
+      </c>
+      <c r="J35" s="3">
+        <v>9</v>
+      </c>
+      <c r="K35" s="3">
+        <v>10</v>
+      </c>
+      <c r="L35" s="3">
+        <v>11</v>
+      </c>
+      <c r="M35" s="3">
+        <v>12</v>
+      </c>
+      <c r="N35" s="3">
+        <v>13</v>
+      </c>
+      <c r="O35" s="3">
+        <v>14</v>
+      </c>
+      <c r="P35" s="3">
+        <v>15</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>16</v>
+      </c>
+      <c r="R35" s="3">
+        <v>17</v>
+      </c>
+      <c r="S35" s="3">
+        <v>18</v>
+      </c>
+      <c r="T35" s="3">
+        <v>19</v>
+      </c>
+      <c r="U35" s="3">
+        <v>20</v>
+      </c>
+      <c r="V35" s="3">
+        <v>21</v>
+      </c>
+      <c r="W35" s="3">
+        <v>22</v>
+      </c>
+      <c r="X35" s="3">
+        <v>23</v>
+      </c>
+      <c r="Y35" s="3">
+        <v>24</v>
+      </c>
+      <c r="Z35" s="3">
+        <v>25</v>
+      </c>
+      <c r="AA35" s="3">
+        <v>26</v>
+      </c>
+      <c r="AB35" s="3">
+        <v>27</v>
+      </c>
+      <c r="AC35" s="3">
+        <v>28</v>
+      </c>
+      <c r="AD35" s="3">
+        <v>29</v>
+      </c>
+      <c r="AE35" s="3">
+        <v>30</v>
+      </c>
+      <c r="AG35" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH35" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI35" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ35" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK35" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL35" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN35" s="9">
+        <v>7</v>
+      </c>
+      <c r="AO35" s="9">
+        <v>22</v>
+      </c>
+      <c r="AP35" s="9">
+        <v>21</v>
+      </c>
+      <c r="AQ35" s="9">
+        <v>20</v>
+      </c>
+      <c r="AR35" s="9">
+        <v>19</v>
+      </c>
+      <c r="AS35" s="9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="2:49">
+      <c r="AG36" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH36" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI36" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ36" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK36" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL36" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN36" s="9">
+        <v>8</v>
+      </c>
+      <c r="AO36" s="9">
+        <v>23</v>
+      </c>
+      <c r="AP36" s="9">
+        <v>30</v>
+      </c>
+      <c r="AQ36" s="9">
+        <v>29</v>
+      </c>
+      <c r="AR36" s="9">
+        <v>28</v>
+      </c>
+      <c r="AS36" s="9">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="2:49">
+      <c r="B37" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I37" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J37" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K37" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L37" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="M37" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="N37" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="O37" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="P37" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q37" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="R37" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="S37" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="T37" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="U37" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="V37" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="W37" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="X37" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y37" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z37" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA37" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB37" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC37" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD37" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE37" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG37" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH37" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI37" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ37" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK37" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL37" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN37" s="9">
+        <v>9</v>
+      </c>
+      <c r="AO37" s="9">
+        <v>24</v>
+      </c>
+      <c r="AP37" s="9">
+        <v>25</v>
+      </c>
+      <c r="AQ37" s="9">
+        <v>26</v>
+      </c>
+      <c r="AR37" s="9">
+        <v>27</v>
+      </c>
+      <c r="AS37" s="9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="2:49">
+      <c r="B38" s="3">
+        <v>6</v>
+      </c>
+      <c r="C38" s="3">
+        <v>5</v>
+      </c>
+      <c r="D38" s="3">
+        <v>4</v>
+      </c>
+      <c r="E38" s="3">
+        <v>3</v>
+      </c>
+      <c r="F38" s="3">
+        <v>2</v>
+      </c>
+      <c r="G38" s="3">
+        <v>1</v>
+      </c>
+      <c r="H38" s="3">
+        <v>7</v>
+      </c>
+      <c r="I38" s="3">
+        <v>13</v>
+      </c>
+      <c r="J38" s="3">
+        <v>19</v>
+      </c>
+      <c r="K38" s="3">
+        <v>25</v>
+      </c>
+      <c r="L38" s="3">
+        <v>26</v>
+      </c>
+      <c r="M38" s="3">
+        <v>27</v>
+      </c>
+      <c r="N38" s="3">
+        <v>28</v>
+      </c>
+      <c r="O38" s="3">
+        <v>29</v>
+      </c>
+      <c r="P38" s="3">
+        <v>30</v>
+      </c>
+      <c r="Q38" s="3">
+        <v>24</v>
+      </c>
+      <c r="R38" s="3"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="3"/>
+      <c r="U38" s="3"/>
+      <c r="V38" s="3"/>
+      <c r="W38" s="3"/>
+      <c r="X38" s="3"/>
+      <c r="Y38" s="3"/>
+      <c r="Z38" s="3"/>
+      <c r="AA38" s="3"/>
+      <c r="AB38" s="3"/>
+      <c r="AC38" s="3"/>
+      <c r="AD38" s="3"/>
+      <c r="AE38" s="3"/>
+      <c r="AG38" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH38" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI38" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ38" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK38" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL38" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AN38" s="9">
+        <v>10</v>
+      </c>
+      <c r="AO38" s="9">
+        <v>11</v>
+      </c>
+      <c r="AP38" s="9">
+        <v>12</v>
+      </c>
+      <c r="AQ38" s="9">
+        <v>13</v>
+      </c>
+      <c r="AR38" s="9">
+        <v>14</v>
+      </c>
+      <c r="AS38" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="2:49">
+      <c r="B39">
+        <f>B38-A38</f>
+        <v>6</v>
+      </c>
+      <c r="C39">
+        <f t="shared" ref="C39:L39" si="5">C38-B38</f>
+        <v>-1</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="M39">
+        <f t="shared" ref="M39" si="6">M38-L38</f>
+        <v>1</v>
+      </c>
+      <c r="N39">
+        <f t="shared" ref="N39" si="7">N38-M38</f>
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <f t="shared" ref="O39" si="8">O38-N38</f>
+        <v>1</v>
+      </c>
+      <c r="P39">
+        <f t="shared" ref="P39" si="9">P38-O38</f>
+        <v>1</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" ref="Q39" si="10">Q38-P38</f>
+        <v>-6</v>
+      </c>
+      <c r="R39">
+        <f t="shared" ref="R39" si="11">R38-Q38</f>
+        <v>-24</v>
+      </c>
+      <c r="S39">
+        <f t="shared" ref="S39" si="12">S38-R38</f>
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <f t="shared" ref="T39" si="13">T38-S38</f>
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <f t="shared" ref="U39" si="14">U38-T38</f>
+        <v>0</v>
+      </c>
+      <c r="V39">
+        <f t="shared" ref="V39" si="15">V38-U38</f>
+        <v>0</v>
+      </c>
+      <c r="W39">
+        <f t="shared" ref="W39" si="16">W38-V38</f>
+        <v>0</v>
+      </c>
+      <c r="X39">
+        <f t="shared" ref="X39" si="17">X38-W38</f>
+        <v>0</v>
+      </c>
+      <c r="Y39">
+        <f t="shared" ref="Y39" si="18">Y38-X38</f>
+        <v>0</v>
+      </c>
+      <c r="Z39">
+        <f t="shared" ref="Z39" si="19">Z38-Y38</f>
+        <v>0</v>
+      </c>
+      <c r="AA39">
+        <f t="shared" ref="AA39" si="20">AA38-Z38</f>
+        <v>0</v>
+      </c>
+      <c r="AB39">
+        <f t="shared" ref="AB39" si="21">AB38-AA38</f>
+        <v>0</v>
+      </c>
+      <c r="AC39">
+        <f t="shared" ref="AC39" si="22">AC38-AB38</f>
+        <v>0</v>
+      </c>
+      <c r="AD39">
+        <f t="shared" ref="AD39" si="23">AD38-AC38</f>
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <f t="shared" ref="AE39" si="24">AE38-AD38</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="45" spans="2:49">
       <c r="B45" s="3"/>

--- a/challenges/synacor-weekly/rotate-cipher/visualize.xlsx
+++ b/challenges/synacor-weekly/rotate-cipher/visualize.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="32520" yWindow="-2700" windowWidth="28860" windowHeight="18480" tabRatio="500"/>
+    <workbookView xWindow="28800" yWindow="-3600" windowWidth="19200" windowHeight="21140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -197,8 +197,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="345">
+  <cellStyleXfs count="347">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -583,7 +585,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="345">
+  <cellStyles count="347">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -756,6 +758,7 @@
     <cellStyle name="Followed Hyperlink" xfId="340" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="342" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="344" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="346" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -928,6 +931,7 @@
     <cellStyle name="Hyperlink" xfId="339" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="341" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="343" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="345" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1257,10 +1261,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:BW59"/>
+  <dimension ref="A3:BW59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X21" sqref="X21"/>
+      <selection activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2263,126 +2267,126 @@
     </row>
     <row r="16" spans="2:75">
       <c r="B16" s="11">
-        <f>HLOOKUP(B15,$B$11:$Z$12,2,FALSE)</f>
+        <f t="shared" ref="B16:Z16" si="0">HLOOKUP(B15,$B$11:$Z$12,2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="C16" s="11">
-        <f>HLOOKUP(C15,$B$11:$Z$12,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="D16" s="11">
-        <f>HLOOKUP(D15,$B$11:$Z$12,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="E16" s="11">
-        <f>HLOOKUP(E15,$B$11:$Z$12,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="F16" s="11">
-        <f>HLOOKUP(F15,$B$11:$Z$12,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="G16" s="11">
-        <f>HLOOKUP(G15,$B$11:$Z$12,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="H16" s="11">
-        <f>HLOOKUP(H15,$B$11:$Z$12,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="I16" s="11">
-        <f>HLOOKUP(I15,$B$11:$Z$12,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="J16" s="11">
-        <f>HLOOKUP(J15,$B$11:$Z$12,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="K16" s="11">
-        <f>HLOOKUP(K15,$B$11:$Z$12,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="L16" s="11">
-        <f>HLOOKUP(L15,$B$11:$Z$12,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="M16" s="11">
-        <f>HLOOKUP(M15,$B$11:$Z$12,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="N16" s="11">
-        <f>HLOOKUP(N15,$B$11:$Z$12,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O16" s="11">
-        <f>HLOOKUP(O15,$B$11:$Z$12,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="P16" s="11">
-        <f>HLOOKUP(P15,$B$11:$Z$12,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="Q16" s="11">
-        <f>HLOOKUP(Q15,$B$11:$Z$12,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="R16" s="11">
-        <f>HLOOKUP(R15,$B$11:$Z$12,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="S16" s="11">
-        <f>HLOOKUP(S15,$B$11:$Z$12,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="T16" s="11">
-        <f>HLOOKUP(T15,$B$11:$Z$12,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="U16" s="11">
-        <f>HLOOKUP(U15,$B$11:$Z$12,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="V16" s="11">
-        <f>HLOOKUP(V15,$B$11:$Z$12,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="W16" s="11">
-        <f>HLOOKUP(W15,$B$11:$Z$12,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="X16" s="11">
-        <f>HLOOKUP(X15,$B$11:$Z$12,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="Y16" s="11">
-        <f>HLOOKUP(Y15,$B$11:$Z$12,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="Z16" s="11">
-        <f>HLOOKUP(Z15,$B$11:$Z$12,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="AA16" s="3"/>
     </row>
-    <row r="17" spans="2:59">
+    <row r="17" spans="1:59">
       <c r="B17" s="12">
-        <f t="shared" ref="B17:F17" si="0">B16-A16</f>
+        <f t="shared" ref="B17:F17" si="1">B16-A16</f>
         <v>5</v>
       </c>
       <c r="C17" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="D17" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="E17" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="F17" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="G17" s="13">
@@ -2390,79 +2394,79 @@
         <v>-1</v>
       </c>
       <c r="H17" s="13">
-        <f t="shared" ref="H17:Z17" si="1">H16-G16</f>
+        <f t="shared" ref="H17:Z17" si="2">H16-G16</f>
         <v>-1</v>
       </c>
       <c r="I17" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="J17" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="K17" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-5</v>
       </c>
       <c r="L17" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-5</v>
       </c>
       <c r="M17" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-5</v>
       </c>
       <c r="N17" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-5</v>
       </c>
       <c r="O17" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="P17" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Q17" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="R17" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="S17" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="T17" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="U17" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="V17" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="W17" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-5</v>
       </c>
       <c r="X17" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-5</v>
       </c>
       <c r="Y17" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Z17" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="AA17" s="3"/>
@@ -2478,7 +2482,7 @@
       <c r="AK17" s="3"/>
       <c r="AL17" s="3"/>
     </row>
-    <row r="18" spans="2:59">
+    <row r="18" spans="1:59">
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -2517,7 +2521,7 @@
       <c r="AK18" s="3"/>
       <c r="AL18" s="3"/>
     </row>
-    <row r="19" spans="2:59">
+    <row r="19" spans="1:59">
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -2556,7 +2560,7 @@
       <c r="AK19" s="3"/>
       <c r="AL19" s="3"/>
     </row>
-    <row r="20" spans="2:59">
+    <row r="20" spans="1:59">
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -2606,7 +2610,7 @@
       <c r="AV20" s="3"/>
       <c r="AW20" s="3"/>
     </row>
-    <row r="21" spans="2:59" ht="16">
+    <row r="21" spans="1:59" ht="16">
       <c r="B21" s="7" t="s">
         <v>10</v>
       </c>
@@ -2776,7 +2780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:59">
+    <row r="22" spans="1:59">
       <c r="B22" s="3">
         <v>1</v>
       </c>
@@ -2946,7 +2950,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="2:59">
+    <row r="23" spans="1:59">
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -3009,7 +3013,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:59" ht="16">
+    <row r="24" spans="1:59" ht="16">
       <c r="B24" s="14" t="s">
         <v>11</v>
       </c>
@@ -3179,7 +3183,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:59">
+    <row r="25" spans="1:59">
       <c r="B25" s="3">
         <v>26</v>
       </c>
@@ -3349,7 +3353,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:59">
+    <row r="26" spans="1:59">
       <c r="AY26" s="6" t="s">
         <v>21</v>
       </c>
@@ -3375,7 +3379,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="2:59" ht="16">
+    <row r="27" spans="1:59" ht="16">
       <c r="B27" s="7" t="s">
         <v>10</v>
       </c>
@@ -3545,371 +3549,192 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="2:59">
-      <c r="B28" s="11">
+    <row r="28" spans="1:59">
+      <c r="AY28" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ28" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="BA28" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="BB28" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="BD28" s="9">
+        <v>19</v>
+      </c>
+      <c r="BE28" s="9">
+        <v>42</v>
+      </c>
+      <c r="BF28" s="9">
+        <v>35</v>
+      </c>
+      <c r="BG28" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:59">
+      <c r="A29" s="3">
+        <v>0</v>
+      </c>
+      <c r="B29" s="11">
         <f>HLOOKUP(B24,$B$21:$AW$22,2,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="C28" s="11">
+      <c r="C29" s="11">
         <f>HLOOKUP(C24,$B$21:$AW$22,2,FALSE)</f>
         <v>8</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D29" s="11">
         <f>HLOOKUP(D24,$B$21:$AW$22,2,FALSE)</f>
         <v>12</v>
       </c>
-      <c r="E28" s="11">
+      <c r="E29" s="11">
         <v>16</v>
       </c>
-      <c r="F28" s="11">
+      <c r="F29" s="11">
         <v>20</v>
       </c>
-      <c r="G28" s="11">
+      <c r="G29" s="11">
         <v>24</v>
       </c>
-      <c r="H28" s="11">
+      <c r="H29" s="11">
         <v>28</v>
       </c>
-      <c r="I28" s="11">
+      <c r="I29" s="11">
         <v>32</v>
       </c>
-      <c r="J28" s="11">
+      <c r="J29" s="11">
         <v>36</v>
       </c>
-      <c r="K28" s="11">
+      <c r="K29" s="11">
         <v>40</v>
       </c>
-      <c r="L28" s="11">
+      <c r="L29" s="11">
         <v>44</v>
       </c>
-      <c r="M28" s="11">
+      <c r="M29" s="11">
         <v>48</v>
       </c>
-      <c r="N28" s="11">
+      <c r="N29" s="11">
         <v>47</v>
       </c>
-      <c r="O28" s="11">
+      <c r="O29" s="11">
         <v>46</v>
       </c>
-      <c r="P28" s="11">
+      <c r="P29" s="11">
         <v>45</v>
       </c>
-      <c r="Q28" s="11">
+      <c r="Q29" s="11">
         <v>41</v>
       </c>
-      <c r="R28" s="11">
+      <c r="R29" s="11">
         <v>37</v>
       </c>
-      <c r="S28" s="11">
+      <c r="S29" s="11">
         <v>33</v>
       </c>
-      <c r="T28" s="11">
+      <c r="T29" s="11">
         <v>29</v>
       </c>
-      <c r="U28" s="11">
+      <c r="U29" s="11">
         <v>25</v>
       </c>
-      <c r="V28" s="11">
+      <c r="V29" s="11">
         <v>21</v>
       </c>
-      <c r="W28" s="11">
+      <c r="W29" s="11">
         <v>17</v>
       </c>
-      <c r="X28" s="11">
+      <c r="X29" s="11">
         <v>13</v>
       </c>
-      <c r="Y28" s="11">
+      <c r="Y29" s="11">
         <v>9</v>
       </c>
-      <c r="Z28" s="11">
+      <c r="Z29" s="11">
         <v>5</v>
       </c>
-      <c r="AA28" s="11">
-        <v>1</v>
-      </c>
-      <c r="AB28" s="11">
+      <c r="AA29" s="11">
+        <v>1</v>
+      </c>
+      <c r="AB29" s="11">
         <v>2</v>
       </c>
-      <c r="AC28" s="11">
+      <c r="AC29" s="11">
         <v>3</v>
       </c>
-      <c r="AD28" s="11">
+      <c r="AD29" s="11">
         <v>7</v>
       </c>
-      <c r="AE28" s="11">
+      <c r="AE29" s="11">
         <v>11</v>
       </c>
-      <c r="AF28" s="11">
+      <c r="AF29" s="11">
         <v>15</v>
       </c>
-      <c r="AG28" s="11">
+      <c r="AG29" s="11">
         <v>19</v>
       </c>
-      <c r="AH28" s="11">
+      <c r="AH29" s="11">
         <v>23</v>
       </c>
-      <c r="AI28" s="11">
+      <c r="AI29" s="11">
         <v>27</v>
       </c>
-      <c r="AJ28" s="11">
+      <c r="AJ29" s="11">
         <v>31</v>
       </c>
-      <c r="AK28" s="11">
+      <c r="AK29" s="11">
         <v>35</v>
       </c>
-      <c r="AL28" s="11">
+      <c r="AL29" s="11">
         <v>39</v>
       </c>
-      <c r="AM28" s="11">
+      <c r="AM29" s="11">
         <v>43</v>
       </c>
-      <c r="AN28" s="11">
-        <f t="shared" ref="AN28" si="2">AM28+AN29</f>
+      <c r="AN29" s="11">
+        <f t="shared" ref="AN29" si="3">AM29+AN30</f>
         <v>42</v>
       </c>
-      <c r="AO28" s="11">
-        <f>AN28+AO29</f>
+      <c r="AO29" s="11">
+        <f>AN29+AO30</f>
         <v>38</v>
       </c>
-      <c r="AP28" s="11">
-        <f t="shared" ref="AP28:AW28" si="3">AO28+AP29</f>
+      <c r="AP29" s="11">
+        <f t="shared" ref="AP29:AW29" si="4">AO29+AP30</f>
         <v>34</v>
       </c>
-      <c r="AQ28" s="11">
-        <f t="shared" si="3"/>
+      <c r="AQ29" s="11">
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="AR28" s="11">
-        <f t="shared" si="3"/>
+      <c r="AR29" s="11">
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
-      <c r="AS28" s="11">
-        <f t="shared" si="3"/>
+      <c r="AS29" s="11">
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
-      <c r="AT28" s="11">
-        <f t="shared" si="3"/>
+      <c r="AT29" s="11">
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
-      <c r="AU28" s="11">
-        <f t="shared" si="3"/>
+      <c r="AU29" s="11">
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="AV28" s="11">
-        <f t="shared" si="3"/>
+      <c r="AV29" s="11">
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="AW28" s="11">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="AY28" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="AZ28" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="BA28" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="BB28" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="BD28" s="9">
-        <v>19</v>
-      </c>
-      <c r="BE28" s="9">
-        <v>42</v>
-      </c>
-      <c r="BF28" s="9">
-        <v>35</v>
-      </c>
-      <c r="BG28" s="9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="2:59">
-      <c r="B29" s="12">
-        <f>B28-A30</f>
-        <v>4</v>
-      </c>
-      <c r="C29" s="12">
-        <f>C28-B28</f>
-        <v>4</v>
-      </c>
-      <c r="D29" s="12">
-        <f t="shared" ref="D29:AM29" si="4">D28-C28</f>
-        <v>4</v>
-      </c>
-      <c r="E29" s="12">
+      <c r="AW29" s="11">
         <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="F29" s="12">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="G29" s="12">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="H29" s="12">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="I29" s="12">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="J29" s="12">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="K29" s="12">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="L29" s="12">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="M29" s="12">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="N29" s="13">
-        <f t="shared" si="4"/>
-        <v>-1</v>
-      </c>
-      <c r="O29" s="13">
-        <f t="shared" si="4"/>
-        <v>-1</v>
-      </c>
-      <c r="P29" s="13">
-        <f t="shared" si="4"/>
-        <v>-1</v>
-      </c>
-      <c r="Q29" s="12">
-        <f t="shared" si="4"/>
-        <v>-4</v>
-      </c>
-      <c r="R29" s="12">
-        <f t="shared" si="4"/>
-        <v>-4</v>
-      </c>
-      <c r="S29" s="12">
-        <f t="shared" si="4"/>
-        <v>-4</v>
-      </c>
-      <c r="T29" s="12">
-        <f t="shared" si="4"/>
-        <v>-4</v>
-      </c>
-      <c r="U29" s="12">
-        <f t="shared" si="4"/>
-        <v>-4</v>
-      </c>
-      <c r="V29" s="12">
-        <f t="shared" si="4"/>
-        <v>-4</v>
-      </c>
-      <c r="W29" s="12">
-        <f t="shared" si="4"/>
-        <v>-4</v>
-      </c>
-      <c r="X29" s="12">
-        <f t="shared" si="4"/>
-        <v>-4</v>
-      </c>
-      <c r="Y29" s="12">
-        <f t="shared" si="4"/>
-        <v>-4</v>
-      </c>
-      <c r="Z29" s="12">
-        <f t="shared" si="4"/>
-        <v>-4</v>
-      </c>
-      <c r="AA29" s="12">
-        <f t="shared" si="4"/>
-        <v>-4</v>
-      </c>
-      <c r="AB29" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="AC29" s="13">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="AD29" s="12">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="AE29" s="12">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="AF29" s="12">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="AG29" s="12">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="AH29" s="12">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="AI29" s="12">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="AJ29" s="12">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="AK29" s="12">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="AL29" s="12">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="AM29" s="12">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="AN29" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AO29" s="12">
-        <v>-4</v>
-      </c>
-      <c r="AP29" s="12">
-        <v>-4</v>
-      </c>
-      <c r="AQ29" s="12">
-        <v>-4</v>
-      </c>
-      <c r="AR29" s="12">
-        <v>-4</v>
-      </c>
-      <c r="AS29" s="12">
-        <v>-4</v>
-      </c>
-      <c r="AT29" s="12">
-        <v>-4</v>
-      </c>
-      <c r="AU29" s="12">
-        <v>-4</v>
-      </c>
-      <c r="AV29" s="12">
-        <v>-4</v>
-      </c>
-      <c r="AW29" s="12">
-        <v>-4</v>
+        <v>6</v>
       </c>
       <c r="AY29" s="6" t="s">
         <v>8</v>
@@ -3936,68 +3761,188 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="2:59">
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3">
-        <v>12</v>
-      </c>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q30" s="3"/>
-      <c r="R30" s="3"/>
-      <c r="S30" s="3"/>
-      <c r="T30" s="3"/>
-      <c r="U30" s="3"/>
-      <c r="V30" s="3"/>
-      <c r="W30" s="3"/>
-      <c r="X30" s="3"/>
-      <c r="Y30" s="3"/>
-      <c r="Z30" s="3"/>
-      <c r="AA30" s="3">
-        <v>11</v>
-      </c>
-      <c r="AB30" s="3"/>
-      <c r="AC30" s="3">
-        <v>2</v>
-      </c>
-      <c r="AD30" s="3"/>
-      <c r="AE30" s="3"/>
-      <c r="AF30" s="3"/>
-      <c r="AG30" s="3"/>
-      <c r="AH30" s="3"/>
-      <c r="AI30" s="3"/>
-      <c r="AJ30" s="3"/>
-      <c r="AK30" s="3"/>
-      <c r="AL30" s="3"/>
-      <c r="AM30" s="3">
-        <v>10</v>
-      </c>
-      <c r="AN30" s="3">
-        <v>1</v>
-      </c>
-      <c r="AO30" s="3"/>
-      <c r="AP30" s="3"/>
-      <c r="AQ30" s="3"/>
-      <c r="AR30" s="3"/>
-      <c r="AS30" s="3"/>
-      <c r="AT30" s="3"/>
-      <c r="AU30" s="3"/>
-      <c r="AV30" s="3"/>
-      <c r="AW30" s="3">
-        <v>9</v>
+    <row r="30" spans="1:59">
+      <c r="B30" s="12">
+        <f>B29-A30</f>
+        <v>4</v>
+      </c>
+      <c r="C30" s="12">
+        <f>C29-B29</f>
+        <v>4</v>
+      </c>
+      <c r="D30" s="12">
+        <f t="shared" ref="D30:AM30" si="5">D29-C29</f>
+        <v>4</v>
+      </c>
+      <c r="E30" s="12">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="F30" s="12">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="G30" s="12">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="H30" s="12">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="I30" s="12">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="J30" s="12">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="K30" s="12">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="L30" s="12">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="M30" s="12">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="N30" s="13">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="O30" s="13">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="P30" s="13">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="Q30" s="12">
+        <f t="shared" si="5"/>
+        <v>-4</v>
+      </c>
+      <c r="R30" s="12">
+        <f t="shared" si="5"/>
+        <v>-4</v>
+      </c>
+      <c r="S30" s="12">
+        <f t="shared" si="5"/>
+        <v>-4</v>
+      </c>
+      <c r="T30" s="12">
+        <f t="shared" si="5"/>
+        <v>-4</v>
+      </c>
+      <c r="U30" s="12">
+        <f t="shared" si="5"/>
+        <v>-4</v>
+      </c>
+      <c r="V30" s="12">
+        <f t="shared" si="5"/>
+        <v>-4</v>
+      </c>
+      <c r="W30" s="12">
+        <f t="shared" si="5"/>
+        <v>-4</v>
+      </c>
+      <c r="X30" s="12">
+        <f t="shared" si="5"/>
+        <v>-4</v>
+      </c>
+      <c r="Y30" s="12">
+        <f t="shared" si="5"/>
+        <v>-4</v>
+      </c>
+      <c r="Z30" s="12">
+        <f t="shared" si="5"/>
+        <v>-4</v>
+      </c>
+      <c r="AA30" s="12">
+        <f t="shared" si="5"/>
+        <v>-4</v>
+      </c>
+      <c r="AB30" s="13">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AC30" s="13">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AD30" s="12">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="AE30" s="12">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="AF30" s="12">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="AG30" s="12">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="AH30" s="12">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="AI30" s="12">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="AJ30" s="12">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="AK30" s="12">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="AL30" s="12">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="AM30" s="12">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="AN30" s="13">
+        <v>-1</v>
+      </c>
+      <c r="AO30" s="12">
+        <v>-4</v>
+      </c>
+      <c r="AP30" s="12">
+        <v>-4</v>
+      </c>
+      <c r="AQ30" s="12">
+        <v>-4</v>
+      </c>
+      <c r="AR30" s="12">
+        <v>-4</v>
+      </c>
+      <c r="AS30" s="12">
+        <v>-4</v>
+      </c>
+      <c r="AT30" s="12">
+        <v>-4</v>
+      </c>
+      <c r="AU30" s="12">
+        <v>-4</v>
+      </c>
+      <c r="AV30" s="12">
+        <v>-4</v>
+      </c>
+      <c r="AW30" s="12">
+        <v>-4</v>
       </c>
       <c r="AY30" s="6" t="s">
         <v>13</v>
@@ -4024,7 +3969,69 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="2:59">
+    <row r="31" spans="1:59">
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3">
+        <v>12</v>
+      </c>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="3"/>
+      <c r="W31" s="3"/>
+      <c r="X31" s="3"/>
+      <c r="Y31" s="3"/>
+      <c r="Z31" s="3"/>
+      <c r="AA31" s="3">
+        <v>11</v>
+      </c>
+      <c r="AB31" s="3"/>
+      <c r="AC31" s="3">
+        <v>2</v>
+      </c>
+      <c r="AD31" s="3"/>
+      <c r="AE31" s="3"/>
+      <c r="AF31" s="3"/>
+      <c r="AG31" s="3"/>
+      <c r="AH31" s="3"/>
+      <c r="AI31" s="3"/>
+      <c r="AJ31" s="3"/>
+      <c r="AK31" s="3"/>
+      <c r="AL31" s="3"/>
+      <c r="AM31" s="3">
+        <v>10</v>
+      </c>
+      <c r="AN31" s="3">
+        <v>1</v>
+      </c>
+      <c r="AO31" s="3"/>
+      <c r="AP31" s="3"/>
+      <c r="AQ31" s="3"/>
+      <c r="AR31" s="3"/>
+      <c r="AS31" s="3"/>
+      <c r="AT31" s="3"/>
+      <c r="AU31" s="3"/>
+      <c r="AV31" s="3"/>
+      <c r="AW31" s="3">
+        <v>9</v>
+      </c>
       <c r="AY31" s="6" t="s">
         <v>13</v>
       </c>
@@ -4050,7 +4057,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="2:59">
+    <row r="32" spans="1:59">
       <c r="AY32" s="6" t="s">
         <v>7</v>
       </c>
@@ -4655,119 +4662,119 @@
         <v>6</v>
       </c>
       <c r="C39">
-        <f t="shared" ref="C39:L39" si="5">C38-B38</f>
+        <f t="shared" ref="C39:L39" si="6">C38-B38</f>
         <v>-1</v>
       </c>
       <c r="D39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-1</v>
       </c>
       <c r="E39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-1</v>
       </c>
       <c r="F39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-1</v>
       </c>
       <c r="G39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-1</v>
       </c>
       <c r="H39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="I39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="J39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="K39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="L39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="M39">
-        <f t="shared" ref="M39" si="6">M38-L38</f>
+        <f t="shared" ref="M39" si="7">M38-L38</f>
         <v>1</v>
       </c>
       <c r="N39">
-        <f t="shared" ref="N39" si="7">N38-M38</f>
+        <f t="shared" ref="N39" si="8">N38-M38</f>
         <v>1</v>
       </c>
       <c r="O39">
-        <f t="shared" ref="O39" si="8">O38-N38</f>
+        <f t="shared" ref="O39" si="9">O38-N38</f>
         <v>1</v>
       </c>
       <c r="P39">
-        <f t="shared" ref="P39" si="9">P38-O38</f>
+        <f t="shared" ref="P39" si="10">P38-O38</f>
         <v>1</v>
       </c>
       <c r="Q39">
-        <f t="shared" ref="Q39" si="10">Q38-P38</f>
+        <f t="shared" ref="Q39" si="11">Q38-P38</f>
         <v>-6</v>
       </c>
       <c r="R39">
-        <f t="shared" ref="R39" si="11">R38-Q38</f>
+        <f t="shared" ref="R39" si="12">R38-Q38</f>
         <v>-24</v>
       </c>
       <c r="S39">
-        <f t="shared" ref="S39" si="12">S38-R38</f>
+        <f t="shared" ref="S39" si="13">S38-R38</f>
         <v>0</v>
       </c>
       <c r="T39">
-        <f t="shared" ref="T39" si="13">T38-S38</f>
+        <f t="shared" ref="T39" si="14">T38-S38</f>
         <v>0</v>
       </c>
       <c r="U39">
-        <f t="shared" ref="U39" si="14">U38-T38</f>
+        <f t="shared" ref="U39" si="15">U38-T38</f>
         <v>0</v>
       </c>
       <c r="V39">
-        <f t="shared" ref="V39" si="15">V38-U38</f>
+        <f t="shared" ref="V39" si="16">V38-U38</f>
         <v>0</v>
       </c>
       <c r="W39">
-        <f t="shared" ref="W39" si="16">W38-V38</f>
+        <f t="shared" ref="W39" si="17">W38-V38</f>
         <v>0</v>
       </c>
       <c r="X39">
-        <f t="shared" ref="X39" si="17">X38-W38</f>
+        <f t="shared" ref="X39" si="18">X38-W38</f>
         <v>0</v>
       </c>
       <c r="Y39">
-        <f t="shared" ref="Y39" si="18">Y38-X38</f>
+        <f t="shared" ref="Y39" si="19">Y38-X38</f>
         <v>0</v>
       </c>
       <c r="Z39">
-        <f t="shared" ref="Z39" si="19">Z38-Y38</f>
+        <f t="shared" ref="Z39" si="20">Z38-Y38</f>
         <v>0</v>
       </c>
       <c r="AA39">
-        <f t="shared" ref="AA39" si="20">AA38-Z38</f>
+        <f t="shared" ref="AA39" si="21">AA38-Z38</f>
         <v>0</v>
       </c>
       <c r="AB39">
-        <f t="shared" ref="AB39" si="21">AB38-AA38</f>
+        <f t="shared" ref="AB39" si="22">AB38-AA38</f>
         <v>0</v>
       </c>
       <c r="AC39">
-        <f t="shared" ref="AC39" si="22">AC38-AB38</f>
+        <f t="shared" ref="AC39" si="23">AC38-AB38</f>
         <v>0</v>
       </c>
       <c r="AD39">
-        <f t="shared" ref="AD39" si="23">AD38-AC38</f>
+        <f t="shared" ref="AD39" si="24">AD38-AC38</f>
         <v>0</v>
       </c>
       <c r="AE39">
-        <f t="shared" ref="AE39" si="24">AE38-AD38</f>
+        <f t="shared" ref="AE39" si="25">AE38-AD38</f>
         <v>0</v>
       </c>
     </row>
